--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronaldogeraidine/PycharmProjects/streamlit-echarts-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03889F89-A713-704A-BA94-1EFB03EDCCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEE782-AD22-7E46-828F-D566E47ECF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rateio" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Unidade</t>
   </si>
@@ -101,7 +101,7 @@
     <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.0000_-;\-[$R$-416]\ * #,##0.0000_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,17 +155,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -230,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -757,15 +769,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -788,7 +791,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,15 +844,6 @@
     <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,12 +908,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,87 +917,98 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="10" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="10" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="10" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="10" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1332,12 +1332,13 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
@@ -1350,32 +1351,32 @@
     <col min="15" max="15" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="20" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="67" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1385,7 +1386,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1396,27 +1397,29 @@
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1426,29 +1429,27 @@
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="L5" s="68" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="L5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="75" t="s">
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="62"/>
+    </row>
+    <row r="6" spans="1:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>304</v>
       </c>
@@ -1459,28 +1460,26 @@
       <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <f>B87</f>
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="17" t="str">
         <f>IFERROR(H6/H8,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="J6" s="18">
         <f>D87</f>
         <v>0</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="64" t="s">
-        <v>16</v>
-      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1493,38 +1492,40 @@
       <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <f>H8-H6</f>
-        <v>1671</v>
-      </c>
-      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="str">
         <f>IFERROR(H7/H8,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J7" s="18">
         <f>E87</f>
         <v>0</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="28">
+      <c r="K7" s="41"/>
+      <c r="L7" s="25">
         <v>1</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="26">
         <v>0</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="27">
         <v>1260</v>
       </c>
-      <c r="O7" s="41">
-        <v>4.9069000000000003</v>
-      </c>
-      <c r="P7" s="31">
+      <c r="O7" s="38">
+        <f>$L$14*R7</f>
+        <v>5.0506000000000002</v>
+      </c>
+      <c r="P7" s="28">
         <v>1</v>
       </c>
-      <c r="Q7" s="45">
-        <v>9.8138000000000005</v>
-      </c>
-      <c r="R7" s="48">
+      <c r="Q7" s="74">
+        <f>O7*(1+P7)</f>
+        <v>10.1012</v>
+      </c>
+      <c r="R7" s="42">
         <v>1</v>
       </c>
     </row>
@@ -1536,36 +1537,38 @@
       <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="25">
-        <v>1671</v>
+      <c r="H8" s="22">
+        <v>0</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="19">
         <f>J7+J6</f>
         <v>0</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="29">
         <v>2</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="30">
         <v>1261</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="31">
         <v>2520</v>
       </c>
-      <c r="O8" s="42">
-        <v>12.267250000000001</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="O8" s="39">
+        <f t="shared" ref="O8:O11" si="0">$L$14*R8</f>
+        <v>12.6265</v>
+      </c>
+      <c r="P8" s="32">
         <v>1</v>
       </c>
-      <c r="Q8" s="46">
-        <v>24.534500000000001</v>
-      </c>
-      <c r="R8" s="49">
+      <c r="Q8" s="75">
+        <f t="shared" ref="Q8:Q11" si="1">O8*(1+P8)</f>
+        <v>25.253</v>
+      </c>
+      <c r="R8" s="43">
         <v>2.5</v>
       </c>
     </row>
@@ -1577,25 +1580,27 @@
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
-      <c r="L9" s="32">
+      <c r="L9" s="29">
         <v>3</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="30">
         <v>2521</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="31">
         <v>3780</v>
       </c>
-      <c r="O9" s="42">
-        <v>15.211390000000002</v>
-      </c>
-      <c r="P9" s="36">
+      <c r="O9" s="39">
+        <f t="shared" si="0"/>
+        <v>15.656860000000002</v>
+      </c>
+      <c r="P9" s="33">
         <v>1</v>
       </c>
-      <c r="Q9" s="46">
-        <v>30.422780000000003</v>
-      </c>
-      <c r="R9" s="49">
+      <c r="Q9" s="75">
+        <f t="shared" si="1"/>
+        <v>31.313720000000004</v>
+      </c>
+      <c r="R9" s="43">
         <v>3.1</v>
       </c>
     </row>
@@ -1607,25 +1612,27 @@
       <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
-      <c r="L10" s="32">
+      <c r="L10" s="29">
         <v>4</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="30">
         <v>3781</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="31">
         <v>5040</v>
       </c>
-      <c r="O10" s="42">
-        <v>29.441400000000002</v>
-      </c>
-      <c r="P10" s="36">
+      <c r="O10" s="39">
+        <f t="shared" si="0"/>
+        <v>30.303600000000003</v>
+      </c>
+      <c r="P10" s="33">
         <v>1</v>
       </c>
-      <c r="Q10" s="46">
-        <v>58.882800000000003</v>
-      </c>
-      <c r="R10" s="49">
+      <c r="Q10" s="75">
+        <f t="shared" si="1"/>
+        <v>60.607200000000006</v>
+      </c>
+      <c r="R10" s="43">
         <v>6</v>
       </c>
     </row>
@@ -1637,23 +1644,25 @@
       <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
-      <c r="L11" s="37">
+      <c r="L11" s="34">
         <v>5</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="35">
         <v>5041</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="43">
-        <v>39.255200000000002</v>
-      </c>
-      <c r="P11" s="40">
+      <c r="N11" s="36"/>
+      <c r="O11" s="40">
+        <f t="shared" si="0"/>
+        <v>40.404800000000002</v>
+      </c>
+      <c r="P11" s="37">
         <v>1</v>
       </c>
-      <c r="Q11" s="47">
-        <v>78.510400000000004</v>
-      </c>
-      <c r="R11" s="50">
+      <c r="Q11" s="76">
+        <f t="shared" si="1"/>
+        <v>80.809600000000003</v>
+      </c>
+      <c r="R11" s="44">
         <v>8</v>
       </c>
     </row>
@@ -1674,10 +1683,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="60"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1687,11 +1696,11 @@
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
-      <c r="J14" s="44"/>
-      <c r="L14" s="61">
-        <v>4.9069000000000003</v>
-      </c>
-      <c r="M14" s="62"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="47">
+        <v>5.0506000000000002</v>
+      </c>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2345,7 +2354,7 @@
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="24">
         <f>SUM(B3:B86)</f>
         <v>0</v>
       </c>
@@ -2354,24 +2363,17 @@
         <v>0</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" ref="D87:E87" si="0">SUM(D3:D86)</f>
+        <f t="shared" ref="D87:E87" si="2">SUM(D3:D86)</f>
         <v>0</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R4:R6"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:A2"/>
@@ -2379,6 +2381,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C86">
     <cfRule type="colorScale" priority="1">
